--- a/biology/Zoologie/Craterosaurus/Craterosaurus.xlsx
+++ b/biology/Zoologie/Craterosaurus/Craterosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craterosaurus est un genre de dinosaures stégosaures du Crétacé inférieur retrouvé en Angleterre. Il pourrait possiblement être synonyme de Regnosaurus, mais cela n'est pas confirmé.
-L'espèce-type, 'Craterosaurus pottonensis, a été nommée et décrite en 1874 par Harry Seeley[1]. Le nom spécifique réfère au lit d'os de Potton.
-Le genre est basé sur l'holotype SMC B.28814, une vertèbre identifiée par erreur comme étant une base de crâne par Seeley. Franz Nopcsa a corrigé l'erreur en 1912[2].
-Craterosaurus est classé chez les stégosaures par Peter Galton en 1981[3], bien que des auteurs subséquents ne reconnaissent pas la validité du taxon[4],[5].
+L'espèce-type, 'Craterosaurus pottonensis, a été nommée et décrite en 1874 par Harry Seeley. Le nom spécifique réfère au lit d'os de Potton.
+Le genre est basé sur l'holotype SMC B.28814, une vertèbre identifiée par erreur comme étant une base de crâne par Seeley. Franz Nopcsa a corrigé l'erreur en 1912.
+Craterosaurus est classé chez les stégosaures par Peter Galton en 1981, bien que des auteurs subséquents ne reconnaissent pas la validité du taxon,.
 </t>
         </is>
       </c>
